--- a/public/XPERTIS, S.A. DE C.V. CATALOGO DE CUENTAS.xlsx
+++ b/public/XPERTIS, S.A. DE C.V. CATALOGO DE CUENTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOX0041\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistema-contable\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD82CB-35FA-48F3-BFA9-AA33814CDC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8DFDC-F830-4E9C-AC1B-6933CE63D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="360" windowWidth="8670" windowHeight="10440" xr2:uid="{775F5DD9-1871-40FA-A8AE-65CA549938A1}"/>
+    <workbookView xWindow="6135" yWindow="1740" windowWidth="12945" windowHeight="8550" xr2:uid="{775F5DD9-1871-40FA-A8AE-65CA549938A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -948,6 +948,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422F012-5A83-420D-A31A-3AA2EAE444C4}">
   <dimension ref="A2:B527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:B189"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295:B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,66 +2499,66 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="7">
         <v>2103</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="7">
         <v>210301</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="7">
         <v>21030101</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="7">
         <v>21030102</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="7">
         <v>21030103</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="7">
         <v>21030104</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="7">
         <v>21030105</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="7">
         <v>21030106</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5168,6 +5172,6 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>